--- a/--- percentage_difference_2023.xlsx
+++ b/--- percentage_difference_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmi\Coding\BM_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A725147-24F6-400C-8344-1ED6015045EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE19455-6510-4D3A-8870-E06E9650BF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-01" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="186">
   <si>
     <t>BMU_ID</t>
   </si>
@@ -621,6 +621,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -717,6 +718,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Poor Performing Wind</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Farm Forcasts</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -725,9 +786,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10201159230096239"/>
-          <c:y val="5.0925925925925923E-2"/>
+          <c:y val="0.11294142580003587"/>
           <c:w val="0.86315026246719173"/>
-          <c:h val="0.75798447069116359"/>
+          <c:h val="0.7368500676545866"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -811,40 +872,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-25.953347469346351</c:v>
+                  <c:v>25.953347469346351</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-23.079216365696009</c:v>
+                  <c:v>23.079216365696009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-28.433870967741935</c:v>
+                  <c:v>28.433870967741935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-27.994062405331711</c:v>
+                  <c:v>27.994062405331711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-40.677643626934611</c:v>
+                  <c:v>40.677643626934611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-31.539655724382492</c:v>
+                  <c:v>31.539655724382492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-45.50286130291866</c:v>
+                  <c:v>45.50286130291866</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-51.609996128865767</c:v>
+                  <c:v>51.609996128865767</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-34.480809159083023</c:v>
+                  <c:v>34.480809159083023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-28.046451612903226</c:v>
+                  <c:v>28.046451612903226</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-36.161756004176823</c:v>
+                  <c:v>36.161756004176823</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-33.436624390918197</c:v>
+                  <c:v>33.436624390918197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,40 +994,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-30.47347041271529</c:v>
+                  <c:v>30.47347041271529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-27.501150773951888</c:v>
+                  <c:v>27.501150773951888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-36.735483870967741</c:v>
+                  <c:v>36.735483870967741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-49.225146170880542</c:v>
+                  <c:v>49.225146170880542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-48.575059406963533</c:v>
+                  <c:v>48.575059406963533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-52.736355383404963</c:v>
+                  <c:v>52.736355383404963</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-39.546820581957078</c:v>
+                  <c:v>39.546820581957078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-48.5996897104841</c:v>
+                  <c:v>48.5996897104841</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-39.746323841903951</c:v>
+                  <c:v>39.746323841903951</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-31.671612903225803</c:v>
+                  <c:v>31.671612903225803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-41.782304769309867</c:v>
+                  <c:v>41.782304769309867</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-34.742372142635944</c:v>
+                  <c:v>34.742372142635944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,40 +1115,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-35.795615655269827</c:v>
+                  <c:v>35.795615655269827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-21.166380121180321</c:v>
+                  <c:v>21.166380121180321</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-18.912903225806449</c:v>
+                  <c:v>18.912903225806449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-30.056292097611241</c:v>
+                  <c:v>30.056292097611241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-48.55313931783472</c:v>
+                  <c:v>48.55313931783472</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-37.110870761647227</c:v>
+                  <c:v>37.110870761647227</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-29.556155028171421</c:v>
+                  <c:v>29.556155028171421</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-39.86121096325855</c:v>
+                  <c:v>39.86121096325855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-26.169322947872981</c:v>
+                  <c:v>26.169322947872981</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-32.345161290322579</c:v>
+                  <c:v>32.345161290322579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-19.695412525799121</c:v>
+                  <c:v>19.695412525799121</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-15.52772106992839</c:v>
+                  <c:v>15.52772106992839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,7 +1182,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="high"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1213,7 +1274,7 @@
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Percentage Difference (%)</a:t>
+                  <a:t>Overestimation (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1296,10 +1357,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15682852143482065"/>
-          <c:y val="0.8272561242344707"/>
+          <c:x val="0.15953865522907199"/>
+          <c:y val="0.12240227217974564"/>
           <c:w val="0.68483814523184605"/>
-          <c:h val="0.14641367745698455"/>
+          <c:h val="6.5898284453573736E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1389,6 +1450,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Well Performing Wind Farm Forcasts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -1397,9 +1513,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10201159230096239"/>
-          <c:y val="5.0925925925925923E-2"/>
+          <c:y val="0.1111111111111111"/>
           <c:w val="0.87908092738407695"/>
-          <c:h val="0.75798447069116359"/>
+          <c:h val="0.69779928550597847"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1484,40 +1600,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-3.5134376105881509</c:v>
+                  <c:v>3.5134376105881509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9699148758854759</c:v>
+                  <c:v>-2.9699148758854759</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.6322580645161286</c:v>
+                  <c:v>5.6322580645161286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.8067648663393285</c:v>
+                  <c:v>8.8067648663393285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0519665658171391</c:v>
+                  <c:v>1.0519665658171391</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-16.11</c:v>
+                  <c:v>16.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-15.04177717136402</c:v>
+                  <c:v>15.04177717136402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9691827965167239</c:v>
+                  <c:v>-1.9691827965167239</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.7415930415725032</c:v>
+                  <c:v>2.7415930415725032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.5516129032258057</c:v>
+                  <c:v>5.5516129032258057</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.7694364161849698</c:v>
+                  <c:v>7.7694364161849698</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.1362469850458279</c:v>
+                  <c:v>8.1362469850458279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,40 +1722,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-0.23911229086638999</c:v>
+                  <c:v>0.23911229086638999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9270418019647141E-2</c:v>
+                  <c:v>-2.9270418019647141E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85967741935483877</c:v>
+                  <c:v>-0.85967741935483877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7568030555674219</c:v>
+                  <c:v>-3.7568030555674219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80230473123728652</c:v>
+                  <c:v>-0.80230473123728652</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.434553443004333</c:v>
+                  <c:v>-9.434553443004333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2226053757812632</c:v>
+                  <c:v>-2.2226053757812632</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8850882372827984</c:v>
+                  <c:v>-4.8850882372827984</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.268135395100495</c:v>
+                  <c:v>-1.268135395100495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.0167741935483869</c:v>
+                  <c:v>1.0167741935483869</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.44</c:v>
+                  <c:v>-1.44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.13</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,40 +1843,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.6520572692306761</c:v>
+                  <c:v>1.6520572692306761</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.1636475024558171</c:v>
+                  <c:v>3.1636475024558171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.20645161290322578</c:v>
+                  <c:v>0.20645161290322578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28362556533460381</c:v>
+                  <c:v>-0.28362556533460381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.3697371509779992</c:v>
+                  <c:v>0.3697371509779992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.9553828164687288</c:v>
+                  <c:v>3.9553828164687288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.68483903685971</c:v>
+                  <c:v>-13.68483903685971</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8814035123112527</c:v>
+                  <c:v>-6.8814035123112527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9576544007247154</c:v>
+                  <c:v>-5.9576544007247154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6541935483870969</c:v>
+                  <c:v>-2.6541935483870969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2268222930894011</c:v>
+                  <c:v>-4.2268222930894011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.922001267373366</c:v>
+                  <c:v>-3.922001267373366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,23 +1992,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Percentage</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Difference</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (%)</a:t>
+                  <a:t>Underestimation (%) Overestimation</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -1976,10 +2077,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10887029746281716"/>
-          <c:y val="0.74855242053076709"/>
-          <c:w val="0.77446303587051624"/>
-          <c:h val="8.1598862642169714E-2"/>
+          <c:x val="0.81889742440731506"/>
+          <c:y val="2.1700568678915139E-2"/>
+          <c:w val="0.1728369929368585"/>
+          <c:h val="0.19270997375328083"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3147,14 +3248,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3505,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10021,24 +10122,28 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640D238-1898-4032-9C2F-7A360C5258C8}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="4" max="16" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="2" t="s">
         <v>169</v>
       </c>
@@ -10079,157 +10184,210 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <v>-35.04</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
       <c r="D2">
-        <v>-25.953347469346351</v>
+        <v>25.953347469346351</v>
       </c>
       <c r="E2">
-        <v>-23.079216365696009</v>
+        <v>23.079216365696009</v>
       </c>
       <c r="F2">
-        <f>E15</f>
-        <v>-28.433870967741935</v>
+        <f>(E15)*-1</f>
+        <v>28.433870967741935</v>
       </c>
       <c r="G2">
-        <v>-27.994062405331711</v>
+        <v>27.994062405331711</v>
       </c>
       <c r="H2">
-        <v>-40.677643626934611</v>
+        <v>40.677643626934611</v>
       </c>
       <c r="I2">
-        <v>-31.539655724382492</v>
+        <v>31.539655724382492</v>
       </c>
       <c r="J2">
-        <v>-45.50286130291866</v>
+        <v>45.50286130291866</v>
       </c>
       <c r="K2">
-        <v>-51.609996128865767</v>
+        <v>51.609996128865767</v>
       </c>
       <c r="L2">
-        <v>-34.480809159083023</v>
+        <v>34.480809159083023</v>
       </c>
       <c r="M2">
-        <f>E25</f>
-        <v>-28.046451612903226</v>
+        <f>(E25)*-1</f>
+        <v>28.046451612903226</v>
       </c>
       <c r="N2">
-        <v>-36.161756004176823</v>
+        <v>36.161756004176823</v>
       </c>
       <c r="O2">
-        <v>-33.436624390918197</v>
+        <v>33.436624390918197</v>
       </c>
       <c r="P2">
-        <f>AVERAGE(D2:O2)</f>
+        <f>(AVERAGE(D2:O2))*-1</f>
         <v>-33.909691263191569</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <v>-41.29</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
       <c r="D3">
-        <v>-30.47347041271529</v>
+        <v>30.47347041271529</v>
       </c>
       <c r="E3">
-        <v>-27.501150773951888</v>
+        <v>27.501150773951888</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F8" si="0">E16</f>
-        <v>-36.735483870967741</v>
+        <f>(E16)*-1</f>
+        <v>36.735483870967741</v>
       </c>
       <c r="G3">
-        <v>-49.225146170880542</v>
+        <v>49.225146170880542</v>
       </c>
       <c r="H3">
-        <v>-48.575059406963533</v>
+        <v>48.575059406963533</v>
       </c>
       <c r="I3">
-        <v>-52.736355383404963</v>
+        <v>52.736355383404963</v>
       </c>
       <c r="J3">
-        <v>-39.546820581957078</v>
+        <v>39.546820581957078</v>
       </c>
       <c r="K3">
-        <v>-48.5996897104841</v>
+        <v>48.5996897104841</v>
       </c>
       <c r="L3">
-        <v>-39.746323841903951</v>
+        <v>39.746323841903951</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M8" si="1">E26</f>
-        <v>-31.671612903225803</v>
+        <f>(E26)*-1</f>
+        <v>31.671612903225803</v>
       </c>
       <c r="N3">
-        <v>-41.782304769309867</v>
+        <v>41.782304769309867</v>
       </c>
       <c r="O3">
-        <v>-34.742372142635944</v>
+        <v>34.742372142635944</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P8" si="2">AVERAGE(D3:O3)</f>
+        <f>(AVERAGE(D3:O3))*-1</f>
         <v>-40.111315830700057</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>-30.35</v>
       </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
       <c r="D4">
-        <v>-35.795615655269827</v>
+        <v>35.795615655269827</v>
       </c>
       <c r="E4">
-        <v>-21.166380121180321</v>
+        <v>21.166380121180321</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>-18.912903225806449</v>
+        <f>(E17)*-1</f>
+        <v>18.912903225806449</v>
       </c>
       <c r="G4">
-        <v>-30.056292097611241</v>
+        <v>30.056292097611241</v>
       </c>
       <c r="H4">
-        <v>-48.55313931783472</v>
+        <v>48.55313931783472</v>
       </c>
       <c r="I4">
-        <v>-37.110870761647227</v>
+        <v>37.110870761647227</v>
       </c>
       <c r="J4">
-        <v>-29.556155028171421</v>
+        <v>29.556155028171421</v>
       </c>
       <c r="K4">
-        <v>-39.86121096325855</v>
+        <v>39.86121096325855</v>
       </c>
       <c r="L4">
-        <v>-26.169322947872981</v>
+        <v>26.169322947872981</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
-        <v>-32.345161290322579</v>
+        <f>(E27)*-1</f>
+        <v>32.345161290322579</v>
       </c>
       <c r="N4">
-        <v>-19.695412525799121</v>
+        <v>19.695412525799121</v>
       </c>
       <c r="O4">
-        <v>-15.52772106992839</v>
+        <v>15.52772106992839</v>
       </c>
       <c r="P4">
-        <f t="shared" si="2"/>
+        <f>(AVERAGE(D4:O4))*-1</f>
         <v>-29.562515417058563</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -10237,49 +10395,49 @@
         <v>-5.117</v>
       </c>
       <c r="D6">
-        <v>-3.5134376105881509</v>
+        <v>3.5134376105881509</v>
       </c>
       <c r="E6">
-        <v>2.9699148758854759</v>
+        <v>-2.9699148758854759</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-5.6322580645161286</v>
+        <f>(E19)*-1</f>
+        <v>5.6322580645161286</v>
       </c>
       <c r="G6">
-        <v>-8.8067648663393285</v>
+        <v>8.8067648663393285</v>
       </c>
       <c r="H6">
-        <v>-1.0519665658171391</v>
+        <v>1.0519665658171391</v>
       </c>
       <c r="I6">
-        <v>-16.11</v>
+        <v>16.11</v>
       </c>
       <c r="J6">
-        <v>-15.04177717136402</v>
+        <v>15.04177717136402</v>
       </c>
       <c r="K6">
-        <v>1.9691827965167239</v>
+        <v>-1.9691827965167239</v>
       </c>
       <c r="L6">
-        <v>-2.7415930415725032</v>
+        <v>2.7415930415725032</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
-        <v>-5.5516129032258057</v>
+        <f>(E29)*-1</f>
+        <v>5.5516129032258057</v>
       </c>
       <c r="N6">
-        <v>-7.7694364161849698</v>
+        <v>7.7694364161849698</v>
       </c>
       <c r="O6">
-        <v>-8.1362469850458279</v>
+        <v>8.1362469850458279</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
+        <f>(AVERAGE(D6:O6))*-1</f>
         <v>-5.7846663293543061</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -10287,49 +10445,49 @@
         <v>2.77</v>
       </c>
       <c r="D7">
-        <v>-0.23911229086638999</v>
+        <v>0.23911229086638999</v>
       </c>
       <c r="E7">
-        <v>2.9270418019647141E-2</v>
+        <v>-2.9270418019647141E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.85967741935483877</v>
+        <f>(E20)*-1</f>
+        <v>-0.85967741935483877</v>
       </c>
       <c r="G7">
-        <v>3.7568030555674219</v>
+        <v>-3.7568030555674219</v>
       </c>
       <c r="H7">
-        <v>0.80230473123728652</v>
+        <v>-0.80230473123728652</v>
       </c>
       <c r="I7">
-        <v>9.434553443004333</v>
+        <v>-9.434553443004333</v>
       </c>
       <c r="J7">
-        <v>2.2226053757812632</v>
+        <v>-2.2226053757812632</v>
       </c>
       <c r="K7">
-        <v>4.8850882372827984</v>
+        <v>-4.8850882372827984</v>
       </c>
       <c r="L7">
-        <v>1.268135395100495</v>
+        <v>-1.268135395100495</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
-        <v>-1.0167741935483869</v>
+        <f>(E30)*-1</f>
+        <v>1.0167741935483869</v>
       </c>
       <c r="N7">
-        <v>1.44</v>
+        <v>-1.44</v>
       </c>
       <c r="O7">
-        <v>-2.13</v>
+        <v>2.13</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f>(AVERAGE(D7:O7))*-1</f>
         <v>1.776045965911109</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -10337,49 +10495,49 @@
         <v>2.52</v>
       </c>
       <c r="D8">
-        <v>-1.6520572692306761</v>
+        <v>1.6520572692306761</v>
       </c>
       <c r="E8">
-        <v>-3.1636475024558171</v>
+        <v>3.1636475024558171</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>-0.20645161290322578</v>
+        <f>(E21)*-1</f>
+        <v>0.20645161290322578</v>
       </c>
       <c r="G8">
-        <v>0.28362556533460381</v>
+        <v>-0.28362556533460381</v>
       </c>
       <c r="H8">
-        <v>-0.3697371509779992</v>
+        <v>0.3697371509779992</v>
       </c>
       <c r="I8">
-        <v>-3.9553828164687288</v>
+        <v>3.9553828164687288</v>
       </c>
       <c r="J8">
-        <v>13.68483903685971</v>
+        <v>-13.68483903685971</v>
       </c>
       <c r="K8">
-        <v>6.8814035123112527</v>
+        <v>-6.8814035123112527</v>
       </c>
       <c r="L8">
-        <v>5.9576544007247154</v>
+        <v>-5.9576544007247154</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
-        <v>2.6541935483870969</v>
+        <f>(E31)*-1</f>
+        <v>-2.6541935483870969</v>
       </c>
       <c r="N8">
-        <v>4.2268222930894011</v>
+        <v>-4.2268222930894011</v>
       </c>
       <c r="O8">
-        <v>3.922001267373366</v>
+        <v>-3.922001267373366</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
+        <f>(AVERAGE(D8:O8))*-1</f>
         <v>2.355271939336975</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -10390,7 +10548,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -10408,7 +10566,7 @@
         <v>-28.433870967741935</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -10422,7 +10580,7 @@
         <v>181</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E21" si="3">(25/31*B16)+(5/31*C16)</f>
+        <f t="shared" ref="E16:E21" si="0">(25/31*B16)+(5/31*C16)</f>
         <v>-36.735483870967741</v>
       </c>
     </row>
@@ -10440,7 +10598,7 @@
         <v>181</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-18.912903225806449</v>
       </c>
     </row>
@@ -10458,7 +10616,7 @@
         <v>181</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-5.6322580645161286</v>
       </c>
     </row>
@@ -10476,7 +10634,7 @@
         <v>181</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.85967741935483877</v>
       </c>
     </row>
@@ -10494,7 +10652,7 @@
         <v>181</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-0.20645161290322578</v>
       </c>
     </row>
@@ -10535,7 +10693,7 @@
         <v>181</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:E31" si="4">(28/31*B26)+(2/31*C26)</f>
+        <f t="shared" ref="E26:E31" si="1">(28/31*B26)+(2/31*C26)</f>
         <v>-31.671612903225803</v>
       </c>
     </row>
@@ -10553,7 +10711,7 @@
         <v>181</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-32.345161290322579</v>
       </c>
     </row>
@@ -10571,7 +10729,7 @@
         <v>181</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-5.5516129032258057</v>
       </c>
     </row>
@@ -10589,7 +10747,7 @@
         <v>181</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.0167741935483869</v>
       </c>
     </row>
@@ -10607,7 +10765,7 @@
         <v>181</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.6541935483870969</v>
       </c>
     </row>

--- a/--- percentage_difference_2023.xlsx
+++ b/--- percentage_difference_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmi\Coding\BM_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE19455-6510-4D3A-8870-E06E9650BF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83025CAB-EEF6-4772-AA5F-FB115CC41814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-01" sheetId="1" r:id="rId1"/>
@@ -1357,10 +1357,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15953865522907199"/>
-          <c:y val="0.12240227217974564"/>
-          <c:w val="0.68483814523184605"/>
-          <c:h val="6.5898284453573736E-2"/>
+          <c:x val="0.74490450888760851"/>
+          <c:y val="1.7732384901162718E-2"/>
+          <c:w val="0.25123380918848554"/>
+          <c:h val="0.14238781746484588"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3606,7 +3606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -10124,7 +10124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640D238-1898-4032-9C2F-7A360C5258C8}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
